--- a/data/staff_table.xlsx
+++ b/data/staff_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aekrumm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xilinchen/Documents/Repo/staff_projection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B280D-D448-3341-BDA2-C34BA4B7AB10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3C4AA-20D2-FC44-B73D-93C0105CDFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="2920" windowWidth="27240" windowHeight="16440" xr2:uid="{18556180-8EE1-D541-B86E-C93BDDD14B2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>team_type</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Respiratory Thrapist</t>
-  </si>
-  <si>
-    <t>Pharn</t>
   </si>
   <si>
     <t>Fellow / Non-CC Attending</t>
@@ -436,7 +433,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -502,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -558,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -572,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -586,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -600,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -611,7 +608,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -625,7 +622,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -639,7 +636,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -653,10 +650,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -667,7 +664,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -681,7 +678,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -695,7 +692,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -709,10 +706,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -723,10 +720,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>30</v>

--- a/data/staff_table.xlsx
+++ b/data/staff_table.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xilinchen/Documents/Repo/staff_projection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3C4AA-20D2-FC44-B73D-93C0105CDFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6F44DC-ED9B-7B44-A3B9-155CE187E278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="2920" windowWidth="27240" windowHeight="16440" xr2:uid="{18556180-8EE1-D541-B86E-C93BDDD14B2F}"/>
+    <workbookView xWindow="17540" yWindow="2580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{18556180-8EE1-D541-B86E-C93BDDD14B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="updated_4_16" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>team_type</t>
   </si>
@@ -79,19 +88,74 @@
   </si>
   <si>
     <t>n_bed_per_person_crisis</t>
+  </si>
+  <si>
+    <t>Physician CC</t>
+  </si>
+  <si>
+    <t>NP/PA CC</t>
+  </si>
+  <si>
+    <t>RN Assist</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>NP/PA Acute</t>
+  </si>
+  <si>
+    <t>shift_length_hr</t>
+  </si>
+  <si>
+    <t>shift_per_week</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>Respiratory Therapist</t>
+  </si>
+  <si>
+    <t>Registered Nurse CC</t>
+  </si>
+  <si>
+    <t>total_employees_at_full_capacity</t>
+  </si>
+  <si>
+    <t>n_bed_per_person_stretch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +178,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,13 +502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB798B8C-F682-2C4E-881B-6D468FC30A56}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -466,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -494,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -508,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -522,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -536,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -550,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -564,7 +634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -578,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -592,7 +662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -606,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -620,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -634,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -648,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -662,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -676,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -690,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -704,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -718,7 +788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -730,6 +800,370 @@
       </c>
       <c r="D21">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6D5E6-DDEF-8B45-B256-001AC23E3CC0}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
